--- a/Analisis/SPRINT/Productos_dic.xlsx
+++ b/Analisis/SPRINT/Productos_dic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\SPRINT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B370047-AF95-46AC-B867-DE96BED2B1B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B102FE2-3CFD-4731-AB68-4066B8E8294F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{37EA177E-1CA8-4067-A4AA-EB5591BE4068}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Unidad de Medida" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5500" uniqueCount="2424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5528" uniqueCount="2443">
   <si>
     <t>Linea</t>
   </si>
@@ -7298,13 +7299,70 @@
   </si>
   <si>
     <t>PZA</t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t>1  a 11</t>
+  </si>
+  <si>
+    <t>13 a 50</t>
+  </si>
+  <si>
+    <t>51 a 100</t>
+  </si>
+  <si>
+    <t>100 a infinito</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Escoba</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>trapeador</t>
+  </si>
+  <si>
+    <t>Complemento de Venta</t>
+  </si>
+  <si>
+    <t>Compra producto Acumulado</t>
+  </si>
+  <si>
+    <t>Costo del producto</t>
+  </si>
+  <si>
+    <t>cubeta</t>
+  </si>
+  <si>
+    <t>Rango Cubeta</t>
+  </si>
+  <si>
+    <t>Piezas</t>
+  </si>
+  <si>
+    <t>Impresión</t>
+  </si>
+  <si>
+    <t>Piezas Complemento</t>
+  </si>
+  <si>
+    <t>imprimir piezas del complemento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7320,8 +7378,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7331,6 +7397,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7347,9 +7419,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -57070,10 +57156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A114FAA9-4C35-4B57-B629-6246654B8107}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57081,9 +57167,14 @@
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2407</v>
       </c>
@@ -57099,8 +57190,15 @@
       <c r="E1" s="1" t="s">
         <v>2411</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q1" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -57116,8 +57214,38 @@
       <c r="E2" t="s">
         <v>2413</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="s">
+        <v>2429</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>2430</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>2439</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>2432</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>2430</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>2441</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>2435</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>2436</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -57133,8 +57261,40 @@
       <c r="E3" t="s">
         <v>2414</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2431</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>4.5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="R3">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <f>R3+M4</f>
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <f>R3*I5</f>
+        <v>67.5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -57150,8 +57310,40 @@
       <c r="E4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="3">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2433</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2437</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f>M5+R4</f>
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f>S4*I13</f>
+        <v>6</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -57167,8 +57359,23 @@
       <c r="E5" t="s">
         <v>2419</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>2426</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2437</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -57184,8 +57391,76 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>2427</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>2428</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>2438</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H13" s="3">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>2426</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H15" s="3" t="s">
+        <v>2427</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>2428</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4.5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q1:U1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>